--- a/_publications/publications.xlsx
+++ b/_publications/publications.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitracin-my.sharepoint.com/personal/prakhar_misra_ce_iitr_ac_in/Documents/Drive/0100-Research/Project/webpage/geohues.github.io/_publications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{D1FA1FB5-7FBE-4FAF-BAA6-AE7440F2720F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{194F0F3B-AB95-4CEE-9756-CB4165557D74}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="8_{D1FA1FB5-7FBE-4FAF-BAA6-AE7440F2720F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC3752C2-0D20-44E9-872C-C684DE842E3B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A1AB70F4-68CA-4BB8-AD6E-FA5E2902E03D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A1AB70F4-68CA-4BB8-AD6E-FA5E2902E03D}"/>
   </bookViews>
   <sheets>
     <sheet name="journals" sheetId="1" r:id="rId1"/>
     <sheet name="conference" sheetId="2" r:id="rId2"/>
-    <sheet name="trainings" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="trainings" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="216">
   <si>
     <t>Count</t>
   </si>
@@ -392,6 +393,300 @@
   </si>
   <si>
     <t>Google Earth Engine for Landsat imagery classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced alerting mechanism for slope and ground instability based on spatio-temporal analysis of anomalous land displacement behavior from time-series InSAR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COVID-19 lockdown impacts on NOx emission: top-down estimation over North India.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How well does KBDI compare with soil moisture for agriculture?: A cal/val study in Thailand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Detection of significant change in nitrogen oxides concentration and emission during COVID-19 lockdown in North India.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Reduction of air pollutants over North-West India observed from space during the Covid-19 lockdown period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Detection of Change in the Aerosol distribution over North-West India during the Covid-19 Lockdown period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Brick Kiln Detection in North India with Sentinel imagery using Deep Learning of Small Datasets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Assessing population sensitivity to urban air pollution using Google Trends and remote sensing datasets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Estimation of the bridge construction year in Cambodia by the analysis of LANDSAT satellite data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Use of Google Trends for Assessing Sensitivity of Population to Urban Air Pollution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Estimating PM$_{2.5}$ Emission from Brick Kiln Industry over Northern India with Numerical Model and Remote Sensing Observation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Analyzing perception of urban air pollution using Google Trends and satellite datasets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Novel Technique for Estimating Expansion of Residential, Commercial and Industrial Regions in Indian Megacities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Land-use Change Impacts on Urban Air Quality in India using Hierarchical Bayesian Approach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spatiotemporal Distribution Of Hotspot / Wildfire In Southeast Asia Using Remote Sensing Data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hierarchical Bayesian approach to estimate land-use change impacts on urban air pollution in India.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Digital Surface Model (DSM) datasets for built-height estimation over Indian cities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comparison of ASTER and AW3D derived Digital Surface Model datasets for built structure height estimation over Yangon city, Myanmar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assessing Impact of Economic Activities on Urban Air Quality in India by Nightlight and Atmospheric Measurement Datasets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Air Quality Analysis Using Nighttime Light for Indian Urban Regions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Analysis Of Air Quality In Indian Cities Using Remote Sensing And Economic Growth Parameters.</t>
+  </si>
+  <si>
+    <t>Arya A., Pamungkas B., Chavan R.,**Misra P.**</t>
+  </si>
+  <si>
+    <t>Hayashida S.,**Misra P.**, Nitta K., Nguyen T.H., Patra P.K., Takigawa M., Khatri P., Dhaka S.K., Dimri A.P., Yamaji K., Takeuchi W.</t>
+  </si>
+  <si>
+    <t>Nguyen T.H., Hayashida S., **Misra P.**, Matsumi Y., Nakayama T., Dhaka S.K., Dimri A.P.</t>
+  </si>
+  <si>
+    <t>Sovisoth E., Thakur V.B., Nagai K.,**Misra P.**, Takeuchi W.</t>
+  </si>
+  <si>
+    <t>Arbain A., Imasu R.,**Misra P.**, Takeuchi W.</t>
+  </si>
+  <si>
+    <t>\textbf{Best Paper Award Finalist}**Misra P.**, Imasu R., Takeuchi W.</t>
+  </si>
+  <si>
+    <t>Ochi S.,**Misra P.**, Takeuchi W.</t>
+  </si>
+  <si>
+    <t>\textbf{Best Paper Award}**Misra P.**, Takeuchi W.</t>
+  </si>
+  <si>
+    <t>**Misra P.**, Takeuchi W., Imasu R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> online</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tokyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> San Francisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daejeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baltimore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sapporo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taipei</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vienna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hyderabad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kuala Lumpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nagoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manila</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Symposium of Remote Sensing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29th Institute of Industrial Science Forum Proceedings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020 AGU Fall Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pecora21/ISRSE38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EGU General Assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27th Institute of Industrial Science Forum Proceedings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40 Asian Conference of Remote Sensing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 International Symposium on Remote Sensing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17 International Symposium on Urban Safety Of Mega Cities In Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39 Asian Conference of Remote Sensing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 Institute of Industrial Science Forum Proceedings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 International Symposium on Remote Sensing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 Institute of Industrial Science Forum Proceedings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37 Asian Conference of Remote Sensing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 IGRSM International Conference and Exhibition on Geospatial \&amp; Remote Sensing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36 Asian Conference on Remote Sensing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 ACF Symposium</t>
+  </si>
+  <si>
+    <t>18/5/2022</t>
+  </si>
+  <si>
+    <t>16/10/2019</t>
+  </si>
+  <si>
+    <t>16/10/2018</t>
+  </si>
+  <si>
+    <t>18/4/2019</t>
+  </si>
+  <si>
+    <t>18/10/2018</t>
+  </si>
+  <si>
+    <t>22/10/2015</t>
+  </si>
+  <si>
+    <t>13/4/2016</t>
+  </si>
+  <si>
+    <t>18/10/2016</t>
+  </si>
+  <si>
+    <t>18/5/2017</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>dates</t>
+  </si>
+  <si>
+    <t>Pasadena</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>International Geoscience and Remote Sensing Symposium</t>
+  </si>
+  <si>
+    <t>Detecting Precursor Onset Of Acceleration Based On Temporal Saliency And Non-parametric Spatial Clustering Of IPTA Displacements</t>
+  </si>
+  <si>
+    <t>Low Latency Forest Logging Monitoring Using Differ-modality Learning Approach</t>
+  </si>
+  <si>
+    <t>Chavhan R., **Misra P.**, Morishita Y., Arya A.</t>
+  </si>
+  <si>
+    <t>Kambhampati P., **Misra P.**, Chavhan R., Arya A</t>
+  </si>
+  <si>
+    <t>17/7/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Application of Satellite Sensing Data to Ground Deformation Monitoring</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>11 International Symposium On Field Monitoring In Geomechanics</t>
+  </si>
+  <si>
+    <t>Yokota Y., Date K., Mei C., Amanda, Hun Y.C., Kambhampati P., **Misra P.**</t>
   </si>
 </sst>
 </file>
@@ -436,10 +731,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1309,22 +1610,1155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C787894-6F8A-4F30-8231-C05E89A886F3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="8" max="8" width="13" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2">
+        <v>2023</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2" t="str">
+        <f>A2&amp;". "&amp;B2&amp;", '"&amp;C2&amp;"', **"&amp;D2&amp;"**, "&amp;E2&amp;", "&amp;F2&amp;", "&amp; TEXT(H2, "DD/MM/YYY")</f>
+        <v>24. Chavhan R., **Misra P.**, Morishita Y., Arya A., 'Detecting Precursor Onset Of Acceleration Based On Temporal Saliency And Non-parametric Spatial Clustering Of IPTA Displacements', **International Geoscience and Remote Sensing Symposium**, Pasadena, USA, 17/7/2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3">
+        <v>2023</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K25" si="0">A3&amp;". "&amp;B3&amp;", '"&amp;C3&amp;"', **"&amp;D3&amp;"**, "&amp;E3&amp;", "&amp;F3&amp;", "&amp; TEXT(H3, "DD/MM/YYY")</f>
+        <v>23. Kambhampati P., **Misra P.**, Chavhan R., Arya A, 'Low Latency Forest Logging Monitoring Using Differ-modality Learning Approach', **International Geoscience and Remote Sensing Symposium**, Pasadena, USA, 17/7/2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4">
+        <v>2022</v>
+      </c>
+      <c r="H4" s="3">
+        <v>44660</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>22. Yokota Y., Date K., Mei C., Amanda, Hun Y.C., Kambhampati P., **Misra P.**, ' Application of Satellite Sensing Data to Ground Deformation Monitoring', **11 International Symposium On Field Monitoring In Geomechanics**, London, UK, 09/04/2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5">
+        <v>2022</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>21. Arya A., Pamungkas B., Chavan R.,**Misra P.**, ' Advanced alerting mechanism for slope and ground instability based on spatio-temporal analysis of anomalous land displacement behavior from time-series InSAR.', ** International Symposium of Remote Sensing**,  online,  Japan, 18/5/2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6">
+        <v>2021</v>
+      </c>
+      <c r="H6" s="3">
+        <v>44533</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>20. **Misra P.**, Takigawa M., Khatri P., Dhaka S.K., Dimri A.P., Yamaji K., Kajino M., Takeuchi W., Imasu R., Patra P.K., Hayashida S., ' COVID-19 lockdown impacts on NOx emission: top-down estimation over North India.', ** 29th Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/12/2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7">
+        <v>2021</v>
+      </c>
+      <c r="H7" s="3">
+        <v>44533</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>19. **Misra P.**, Takeuchi W., ' How well does KBDI compare with soil moisture for agriculture?: A cal/val study in Thailand.', ** 29th Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/12/2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8">
+        <v>2020</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44024</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>18. **Misra P.**, Takigawa M., Khatri P., Dhaka S.K., Dimri A.P., Yamaji K., Kajino M., Takeuchi W., Imasu R., Patra P.K., Hayashida S., '  Detection of significant change in nitrogen oxides concentration and emission during COVID-19 lockdown in North India.', ** 2020 AGU Fall Meeting**,  San Francisco,  USA, 12/07/2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9">
+        <v>2020</v>
+      </c>
+      <c r="H9" s="3">
+        <v>44024</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>17. Hayashida S.,**Misra P.**, Nitta K., Nguyen T.H., Patra P.K., Takigawa M., Khatri P., Dhaka S.K., Dimri A.P., Yamaji K., Takeuchi W., '  Reduction of air pollutants over North-West India observed from space during the Covid-19 lockdown period.', ** 2020 AGU Fall Meeting**,  San Francisco,  USA, 12/07/2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10">
+        <v>2020</v>
+      </c>
+      <c r="H10" s="3">
+        <v>44024</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>16. Nguyen T.H., Hayashida S., **Misra P.**, Matsumi Y., Nakayama T., Dhaka S.K., Dimri A.P., '  Detection of Change in the Aerosol distribution over North-West India during the Covid-19 Lockdown period.', ** 2020 AGU Fall Meeting**,  San Francisco,  USA, 12/07/2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11">
+        <v>2019</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>15. **Misra P.**, Takeuchi W., Imasu R., '  Brick Kiln Detection in North India with Sentinel imagery using Deep Learning of Small Datasets.', ** 40 Asian Conference of Remote Sensing**,  Daejeon,  South Korea, 16/10/2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12">
+        <v>2019</v>
+      </c>
+      <c r="H12" s="3">
+        <v>43656</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>14. **Misra P.**, Takeuchi W., '   Assessing population sensitivity to urban air pollution using Google Trends and remote sensing datasets.', ** Pecora21/ISRSE38**,  Baltimore,  USA, 10/07/2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13">
+        <v>2019</v>
+      </c>
+      <c r="H13" s="3">
+        <v>43749</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>13. Sovisoth E., Thakur V.B., Nagai K.,**Misra P.**, Takeuchi W., '  Estimation of the bridge construction year in Cambodia by the analysis of LANDSAT satellite data.', ** 3 ACF Symposium**,  Sapporo,  Japan, 11/10/2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14">
+        <v>2019</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>12. **Misra P.**, Takeuchi W., ' Use of Google Trends for Assessing Sensitivity of Population to Urban Air Pollution.', ** 26 International Symposium on Remote Sensing**,  Taipei,  Taiwan, 18/4/2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15">
+        <v>2019</v>
+      </c>
+      <c r="H15" s="3">
+        <v>43773</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>11. Arbain A., Imasu R.,**Misra P.**, Takeuchi W., '  Estimating PM$_{2.5}$ Emission from Brick Kiln Industry over Northern India with Numerical Model and Remote Sensing Observation.', ** EGU General Assembly**,  Vienna,  Austria, 04/11/2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16">
+        <v>2019</v>
+      </c>
+      <c r="H16" s="3">
+        <v>43649</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>10. **Misra P.**, Takeuchi W., '  Analyzing perception of urban air pollution using Google Trends and satellite datasets.', ** 27th Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/07/2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17">
+        <v>2018</v>
+      </c>
+      <c r="H17" s="3">
+        <v>43446</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>9. **Misra P.**, Takeuchi W., ' A Novel Technique for Estimating Expansion of Residential, Commercial and Industrial Regions in Indian Megacities.', ** 17 International Symposium on Urban Safety Of Mega Cities In Asia**,  Hyderabad,  India, 12/12/2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18">
+        <v>2018</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>8. \textbf{Best Paper Award Finalist}**Misra P.**, Imasu R., Takeuchi W., ' Land-use Change Impacts on Urban Air Quality in India using Hierarchical Bayesian Approach.', ** 39 Asian Conference of Remote Sensing**,  Kuala Lumpur,  Malaysia, 16/10/2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19">
+        <v>2018</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>7. Ochi S.,**Misra P.**, Takeuchi W., ' Spatiotemporal Distribution Of Hotspot / Wildfire In Southeast Asia Using Remote Sensing Data.', ** 39 Asian Conference of Remote Sensing**,  Kuala Lumpur,  Malaysia, 18/10/2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20">
+        <v>2018</v>
+      </c>
+      <c r="H20" s="3">
+        <v>43254</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>6. \textbf{Best Paper Award}**Misra P.**, Takeuchi W., ' Hierarchical Bayesian approach to estimate land-use change impacts on urban air pollution in India.', ** 26 Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/06/2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21">
+        <v>2017</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>5. **Misra P.**, Takeuchi W., ' Digital Surface Model (DSM) datasets for built-height estimation over Indian cities.', ** 24 International Symposium on Remote Sensing**,  Nagoya,  Japan, 18/5/2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22">
+        <v>2017</v>
+      </c>
+      <c r="H22" s="3">
+        <v>42769</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>4. **Misra P.**, Takeuchi W., ' Comparison of ASTER and AW3D derived Digital Surface Model datasets for built structure height estimation over Yangon city, Myanmar.', ** 25 Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/02/2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23">
+        <v>2016</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>3. **Misra P.**, Takeuchi W., ' Assessing Impact of Economic Activities on Urban Air Quality in India by Nightlight and Atmospheric Measurement Datasets.', ** 37 Asian Conference of Remote Sensing**,  Colombo,  Sri Lanka, 18/10/2016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24">
+        <v>2016</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>2. **Misra P.**, Takeuchi W., ' Air Quality Analysis Using Nighttime Light for Indian Urban Regions.', ** 8 IGRSM International Conference and Exhibition on Geospatial \&amp; Remote Sensing **,  Kuala Lumpur,  Malaysia, 13/4/2016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25">
+        <v>2015</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>1. **Misra P.**, Takeuchi W., ' Analysis Of Air Quality In Indian Cities Using Remote Sensing And Economic Growth Parameters.', ** 36 Asian Conference on Remote Sensing**,  Manila,  Philippines, 22/10/2015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DDBF8F-D855-4E21-A473-FABD61A3F09E}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2">
+        <v>2021</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3">
+        <v>2021</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7">
+        <v>2019</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8">
+        <v>2019</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9">
+        <v>2019</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10">
+        <v>2019</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11">
+        <v>2019</v>
+      </c>
+      <c r="E11" s="3">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12">
+        <v>2019</v>
+      </c>
+      <c r="E12" s="3">
+        <v>43649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13">
+        <v>2018</v>
+      </c>
+      <c r="E13" s="3">
+        <v>43446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14">
+        <v>2018</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15">
+        <v>2018</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16">
+        <v>2018</v>
+      </c>
+      <c r="E16" s="3">
+        <v>43254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17">
+        <v>2017</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18">
+        <v>2017</v>
+      </c>
+      <c r="E18" s="3">
+        <v>42769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19">
+        <v>2016</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20">
+        <v>2016</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21">
+        <v>2015</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7BE145-91B5-4C70-A55F-DA54D462300C}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/_publications/publications.xlsx
+++ b/_publications/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitracin-my.sharepoint.com/personal/prakhar_misra_ce_iitr_ac_in/Documents/Drive/0100-Research/Project/webpage/geohues.github.io/_publications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{D1FA1FB5-7FBE-4FAF-BAA6-AE7440F2720F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC3752C2-0D20-44E9-872C-C684DE842E3B}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="8_{D1FA1FB5-7FBE-4FAF-BAA6-AE7440F2720F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5B20C6E-804A-46FE-A7AC-28BD2B1D8046}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A1AB70F4-68CA-4BB8-AD6E-FA5E2902E03D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="233">
   <si>
     <t>Count</t>
   </si>
@@ -687,6 +687,57 @@
   </si>
   <si>
     <t>Yokota Y., Date K., Mei C., Amanda, Hun Y.C., Kambhampati P., **Misra P.**</t>
+  </si>
+  <si>
+    <t>International Symposium of Remote Sensing</t>
+  </si>
+  <si>
+    <t>29th Institute of Industrial Science Forum Proceedings</t>
+  </si>
+  <si>
+    <t>2020 AGU Fall Meeting</t>
+  </si>
+  <si>
+    <t>40 Asian Conference of Remote Sensing</t>
+  </si>
+  <si>
+    <t>Pecora21/ISRSE38</t>
+  </si>
+  <si>
+    <t>3 ACF Symposium</t>
+  </si>
+  <si>
+    <t>26 International Symposium on Remote Sensing</t>
+  </si>
+  <si>
+    <t>EGU General Assembly</t>
+  </si>
+  <si>
+    <t>27th Institute of Industrial Science Forum Proceedings</t>
+  </si>
+  <si>
+    <t>17 International Symposium on Urban Safety Of Mega Cities In Asia</t>
+  </si>
+  <si>
+    <t>39 Asian Conference of Remote Sensing</t>
+  </si>
+  <si>
+    <t>26 Institute of Industrial Science Forum Proceedings</t>
+  </si>
+  <si>
+    <t>24 International Symposium on Remote Sensing</t>
+  </si>
+  <si>
+    <t>25 Institute of Industrial Science Forum Proceedings</t>
+  </si>
+  <si>
+    <t>37 Asian Conference of Remote Sensing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 IGRSM International Conference and Exhibition on Geospatial \&amp; Remote Sensing </t>
+  </si>
+  <si>
+    <t>36 Asian Conference on Remote Sensing</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1664,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1752,7 +1803,7 @@
         <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
         <v>148</v>
@@ -1768,7 +1819,7 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>21. Arya A., Pamungkas B., Chavan R.,**Misra P.**, ' Advanced alerting mechanism for slope and ground instability based on spatio-temporal analysis of anomalous land displacement behavior from time-series InSAR.', ** International Symposium of Remote Sensing**,  online,  Japan, 18/5/2022</v>
+        <v>21. Arya A., Pamungkas B., Chavan R.,**Misra P.**, ' Advanced alerting mechanism for slope and ground instability based on spatio-temporal analysis of anomalous land displacement behavior from time-series InSAR.', **International Symposium of Remote Sensing**,  online,  Japan, 18/5/2022</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1782,7 +1833,7 @@
         <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
         <v>150</v>
@@ -1798,7 +1849,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>20. **Misra P.**, Takigawa M., Khatri P., Dhaka S.K., Dimri A.P., Yamaji K., Kajino M., Takeuchi W., Imasu R., Patra P.K., Hayashida S., ' COVID-19 lockdown impacts on NOx emission: top-down estimation over North India.', ** 29th Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/12/2021</v>
+        <v>20. **Misra P.**, Takigawa M., Khatri P., Dhaka S.K., Dimri A.P., Yamaji K., Kajino M., Takeuchi W., Imasu R., Patra P.K., Hayashida S., ' COVID-19 lockdown impacts on NOx emission: top-down estimation over North India.', **29th Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/12/2021</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1812,7 +1863,7 @@
         <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
         <v>150</v>
@@ -1828,7 +1879,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>19. **Misra P.**, Takeuchi W., ' How well does KBDI compare with soil moisture for agriculture?: A cal/val study in Thailand.', ** 29th Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/12/2021</v>
+        <v>19. **Misra P.**, Takeuchi W., ' How well does KBDI compare with soil moisture for agriculture?: A cal/val study in Thailand.', **29th Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/12/2021</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1842,7 +1893,7 @@
         <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
         <v>151</v>
@@ -1858,7 +1909,7 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>18. **Misra P.**, Takigawa M., Khatri P., Dhaka S.K., Dimri A.P., Yamaji K., Kajino M., Takeuchi W., Imasu R., Patra P.K., Hayashida S., '  Detection of significant change in nitrogen oxides concentration and emission during COVID-19 lockdown in North India.', ** 2020 AGU Fall Meeting**,  San Francisco,  USA, 12/07/2020</v>
+        <v>18. **Misra P.**, Takigawa M., Khatri P., Dhaka S.K., Dimri A.P., Yamaji K., Kajino M., Takeuchi W., Imasu R., Patra P.K., Hayashida S., '  Detection of significant change in nitrogen oxides concentration and emission during COVID-19 lockdown in North India.', **2020 AGU Fall Meeting**,  San Francisco,  USA, 12/07/2020</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1872,7 +1923,7 @@
         <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s">
         <v>151</v>
@@ -1888,7 +1939,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>17. Hayashida S.,**Misra P.**, Nitta K., Nguyen T.H., Patra P.K., Takigawa M., Khatri P., Dhaka S.K., Dimri A.P., Yamaji K., Takeuchi W., '  Reduction of air pollutants over North-West India observed from space during the Covid-19 lockdown period.', ** 2020 AGU Fall Meeting**,  San Francisco,  USA, 12/07/2020</v>
+        <v>17. Hayashida S.,**Misra P.**, Nitta K., Nguyen T.H., Patra P.K., Takigawa M., Khatri P., Dhaka S.K., Dimri A.P., Yamaji K., Takeuchi W., '  Reduction of air pollutants over North-West India observed from space during the Covid-19 lockdown period.', **2020 AGU Fall Meeting**,  San Francisco,  USA, 12/07/2020</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1902,7 +1953,7 @@
         <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
         <v>151</v>
@@ -1918,7 +1969,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>16. Nguyen T.H., Hayashida S., **Misra P.**, Matsumi Y., Nakayama T., Dhaka S.K., Dimri A.P., '  Detection of Change in the Aerosol distribution over North-West India during the Covid-19 Lockdown period.', ** 2020 AGU Fall Meeting**,  San Francisco,  USA, 12/07/2020</v>
+        <v>16. Nguyen T.H., Hayashida S., **Misra P.**, Matsumi Y., Nakayama T., Dhaka S.K., Dimri A.P., '  Detection of Change in the Aerosol distribution over North-West India during the Covid-19 Lockdown period.', **2020 AGU Fall Meeting**,  San Francisco,  USA, 12/07/2020</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1932,7 +1983,7 @@
         <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
         <v>153</v>
@@ -1948,7 +1999,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>15. **Misra P.**, Takeuchi W., Imasu R., '  Brick Kiln Detection in North India with Sentinel imagery using Deep Learning of Small Datasets.', ** 40 Asian Conference of Remote Sensing**,  Daejeon,  South Korea, 16/10/2019</v>
+        <v>15. **Misra P.**, Takeuchi W., Imasu R., '  Brick Kiln Detection in North India with Sentinel imagery using Deep Learning of Small Datasets.', **40 Asian Conference of Remote Sensing**,  Daejeon,  South Korea, 16/10/2019</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1962,7 +2013,7 @@
         <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
         <v>155</v>
@@ -1978,7 +2029,7 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>14. **Misra P.**, Takeuchi W., '   Assessing population sensitivity to urban air pollution using Google Trends and remote sensing datasets.', ** Pecora21/ISRSE38**,  Baltimore,  USA, 10/07/2019</v>
+        <v>14. **Misra P.**, Takeuchi W., '   Assessing population sensitivity to urban air pollution using Google Trends and remote sensing datasets.', **Pecora21/ISRSE38**,  Baltimore,  USA, 10/07/2019</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1992,7 +2043,7 @@
         <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
         <v>156</v>
@@ -2008,7 +2059,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>13. Sovisoth E., Thakur V.B., Nagai K.,**Misra P.**, Takeuchi W., '  Estimation of the bridge construction year in Cambodia by the analysis of LANDSAT satellite data.', ** 3 ACF Symposium**,  Sapporo,  Japan, 11/10/2019</v>
+        <v>13. Sovisoth E., Thakur V.B., Nagai K.,**Misra P.**, Takeuchi W., '  Estimation of the bridge construction year in Cambodia by the analysis of LANDSAT satellite data.', **3 ACF Symposium**,  Sapporo,  Japan, 11/10/2019</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2022,7 +2073,7 @@
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
         <v>157</v>
@@ -2038,7 +2089,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>12. **Misra P.**, Takeuchi W., ' Use of Google Trends for Assessing Sensitivity of Population to Urban Air Pollution.', ** 26 International Symposium on Remote Sensing**,  Taipei,  Taiwan, 18/4/2019</v>
+        <v>12. **Misra P.**, Takeuchi W., ' Use of Google Trends for Assessing Sensitivity of Population to Urban Air Pollution.', **26 International Symposium on Remote Sensing**,  Taipei,  Taiwan, 18/4/2019</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2052,7 +2103,7 @@
         <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="E15" t="s">
         <v>159</v>
@@ -2068,7 +2119,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>11. Arbain A., Imasu R.,**Misra P.**, Takeuchi W., '  Estimating PM$_{2.5}$ Emission from Brick Kiln Industry over Northern India with Numerical Model and Remote Sensing Observation.', ** EGU General Assembly**,  Vienna,  Austria, 04/11/2019</v>
+        <v>11. Arbain A., Imasu R.,**Misra P.**, Takeuchi W., '  Estimating PM$_{2.5}$ Emission from Brick Kiln Industry over Northern India with Numerical Model and Remote Sensing Observation.', **EGU General Assembly**,  Vienna,  Austria, 04/11/2019</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2082,7 +2133,7 @@
         <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="E16" t="s">
         <v>150</v>
@@ -2098,7 +2149,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>10. **Misra P.**, Takeuchi W., '  Analyzing perception of urban air pollution using Google Trends and satellite datasets.', ** 27th Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/07/2019</v>
+        <v>10. **Misra P.**, Takeuchi W., '  Analyzing perception of urban air pollution using Google Trends and satellite datasets.', **27th Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/07/2019</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2112,7 +2163,7 @@
         <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
         <v>161</v>
@@ -2128,7 +2179,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>9. **Misra P.**, Takeuchi W., ' A Novel Technique for Estimating Expansion of Residential, Commercial and Industrial Regions in Indian Megacities.', ** 17 International Symposium on Urban Safety Of Mega Cities In Asia**,  Hyderabad,  India, 12/12/2018</v>
+        <v>9. **Misra P.**, Takeuchi W., ' A Novel Technique for Estimating Expansion of Residential, Commercial and Industrial Regions in Indian Megacities.', **17 International Symposium on Urban Safety Of Mega Cities In Asia**,  Hyderabad,  India, 12/12/2018</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2142,7 +2193,7 @@
         <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
         <v>163</v>
@@ -2158,7 +2209,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>8. \textbf{Best Paper Award Finalist}**Misra P.**, Imasu R., Takeuchi W., ' Land-use Change Impacts on Urban Air Quality in India using Hierarchical Bayesian Approach.', ** 39 Asian Conference of Remote Sensing**,  Kuala Lumpur,  Malaysia, 16/10/2018</v>
+        <v>8. \textbf{Best Paper Award Finalist}**Misra P.**, Imasu R., Takeuchi W., ' Land-use Change Impacts on Urban Air Quality in India using Hierarchical Bayesian Approach.', **39 Asian Conference of Remote Sensing**,  Kuala Lumpur,  Malaysia, 16/10/2018</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2172,7 +2223,7 @@
         <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="E19" t="s">
         <v>163</v>
@@ -2188,7 +2239,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>7. Ochi S.,**Misra P.**, Takeuchi W., ' Spatiotemporal Distribution Of Hotspot / Wildfire In Southeast Asia Using Remote Sensing Data.', ** 39 Asian Conference of Remote Sensing**,  Kuala Lumpur,  Malaysia, 18/10/2018</v>
+        <v>7. Ochi S.,**Misra P.**, Takeuchi W., ' Spatiotemporal Distribution Of Hotspot / Wildfire In Southeast Asia Using Remote Sensing Data.', **39 Asian Conference of Remote Sensing**,  Kuala Lumpur,  Malaysia, 18/10/2018</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2202,7 +2253,7 @@
         <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="E20" t="s">
         <v>150</v>
@@ -2218,7 +2269,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>6. \textbf{Best Paper Award}**Misra P.**, Takeuchi W., ' Hierarchical Bayesian approach to estimate land-use change impacts on urban air pollution in India.', ** 26 Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/06/2018</v>
+        <v>6. \textbf{Best Paper Award}**Misra P.**, Takeuchi W., ' Hierarchical Bayesian approach to estimate land-use change impacts on urban air pollution in India.', **26 Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/06/2018</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2232,7 +2283,7 @@
         <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="E21" t="s">
         <v>165</v>
@@ -2248,7 +2299,7 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>5. **Misra P.**, Takeuchi W., ' Digital Surface Model (DSM) datasets for built-height estimation over Indian cities.', ** 24 International Symposium on Remote Sensing**,  Nagoya,  Japan, 18/5/2017</v>
+        <v>5. **Misra P.**, Takeuchi W., ' Digital Surface Model (DSM) datasets for built-height estimation over Indian cities.', **24 International Symposium on Remote Sensing**,  Nagoya,  Japan, 18/5/2017</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2262,7 +2313,7 @@
         <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="E22" t="s">
         <v>150</v>
@@ -2278,7 +2329,7 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
-        <v>4. **Misra P.**, Takeuchi W., ' Comparison of ASTER and AW3D derived Digital Surface Model datasets for built structure height estimation over Yangon city, Myanmar.', ** 25 Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/02/2017</v>
+        <v>4. **Misra P.**, Takeuchi W., ' Comparison of ASTER and AW3D derived Digital Surface Model datasets for built structure height estimation over Yangon city, Myanmar.', **25 Institute of Industrial Science Forum Proceedings**,  Tokyo,  Japan, 03/02/2017</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2292,7 +2343,7 @@
         <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
         <v>166</v>
@@ -2308,7 +2359,7 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
-        <v>3. **Misra P.**, Takeuchi W., ' Assessing Impact of Economic Activities on Urban Air Quality in India by Nightlight and Atmospheric Measurement Datasets.', ** 37 Asian Conference of Remote Sensing**,  Colombo,  Sri Lanka, 18/10/2016</v>
+        <v>3. **Misra P.**, Takeuchi W., ' Assessing Impact of Economic Activities on Urban Air Quality in India by Nightlight and Atmospheric Measurement Datasets.', **37 Asian Conference of Remote Sensing**,  Colombo,  Sri Lanka, 18/10/2016</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2322,7 +2373,7 @@
         <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
         <v>163</v>
@@ -2338,7 +2389,7 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
-        <v>2. **Misra P.**, Takeuchi W., ' Air Quality Analysis Using Nighttime Light for Indian Urban Regions.', ** 8 IGRSM International Conference and Exhibition on Geospatial \&amp; Remote Sensing **,  Kuala Lumpur,  Malaysia, 13/4/2016</v>
+        <v>2. **Misra P.**, Takeuchi W., ' Air Quality Analysis Using Nighttime Light for Indian Urban Regions.', **8 IGRSM International Conference and Exhibition on Geospatial \&amp; Remote Sensing **,  Kuala Lumpur,  Malaysia, 13/4/2016</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2352,7 +2403,7 @@
         <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="E25" t="s">
         <v>168</v>
@@ -2368,7 +2419,7 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
-        <v>1. **Misra P.**, Takeuchi W., ' Analysis Of Air Quality In Indian Cities Using Remote Sensing And Economic Growth Parameters.', ** 36 Asian Conference on Remote Sensing**,  Manila,  Philippines, 22/10/2015</v>
+        <v>1. **Misra P.**, Takeuchi W., ' Analysis Of Air Quality In Indian Cities Using Remote Sensing And Economic Growth Parameters.', **36 Asian Conference on Remote Sensing**,  Manila,  Philippines, 22/10/2015</v>
       </c>
     </row>
   </sheetData>
